--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.0.3.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.0.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="588" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -1942,7 +1942,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2301,9 +2301,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4483,9 +4480,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Z146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4503,83 +4498,83 @@
     <col min="27" max="16384" width="11.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:26" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -5158,7 +5153,7 @@
         <v>32</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y12" s="24"/>
       <c r="Z12" s="133" t="s">
@@ -5960,7 +5955,7 @@
       <c r="V28" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="W28" s="140" t="s">
+      <c r="W28" s="23" t="s">
         <v>0</v>
       </c>
       <c r="X28" s="23" t="s">
@@ -6376,7 +6371,7 @@
         <v>32</v>
       </c>
       <c r="X36" s="24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y36" s="24"/>
       <c r="Z36" s="133" t="s">
@@ -7188,7 +7183,7 @@
       <c r="V52" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="W52" s="140" t="s">
+      <c r="W52" s="23" t="s">
         <v>0</v>
       </c>
       <c r="X52" s="23" t="s">
@@ -7604,7 +7599,7 @@
         <v>32</v>
       </c>
       <c r="X60" s="24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y60" s="24"/>
       <c r="Z60" s="133" t="s">
@@ -8416,7 +8411,7 @@
       <c r="V76" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="W76" s="140" t="s">
+      <c r="W76" s="23" t="s">
         <v>0</v>
       </c>
       <c r="X76" s="23" t="s">
@@ -8832,7 +8827,7 @@
         <v>32</v>
       </c>
       <c r="X84" s="24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y84" s="24"/>
       <c r="Z84" s="133" t="s">
@@ -9644,7 +9639,7 @@
       <c r="V100" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="W100" s="140" t="s">
+      <c r="W100" s="23" t="s">
         <v>0</v>
       </c>
       <c r="X100" s="23" t="s">
@@ -10060,7 +10055,7 @@
         <v>32</v>
       </c>
       <c r="X108" s="24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y108" s="24"/>
       <c r="Z108" s="133" t="s">
@@ -10870,7 +10865,7 @@
       <c r="V124" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="W124" s="140" t="s">
+      <c r="W124" s="23" t="s">
         <v>0</v>
       </c>
       <c r="X124" s="23" t="s">
@@ -11286,7 +11281,7 @@
         <v>32</v>
       </c>
       <c r="X132" s="24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y132" s="24"/>
       <c r="Z132" s="133" t="s">
@@ -12034,83 +12029,83 @@
     <col min="26" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -13439,83 +13434,83 @@
     <col min="25" max="25" width="11.5703125" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -15347,83 +15342,83 @@
     <col min="23" max="26" width="11.42578125" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:26" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -16172,83 +16167,83 @@
     <col min="25" max="25" width="11.5703125" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -17029,83 +17024,83 @@
     <col min="51" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:26" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -17854,83 +17849,83 @@
     <col min="25" max="25" width="11.5703125" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:26" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -18706,83 +18701,83 @@
     <col min="51" max="16384" width="11.42578125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -19636,83 +19631,83 @@
     <col min="51" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -20551,83 +20546,83 @@
     <col min="51" max="16384" width="11.42578125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -21470,83 +21465,83 @@
     <col min="51" max="16384" width="11.42578125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -25873,83 +25868,83 @@
     <col min="26" max="26" width="11.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:26" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -28286,7 +28281,9 @@
   <sheetPr codeName="Hoja21"/>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28302,83 +28299,83 @@
     <col min="26" max="26" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:26" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -33205,83 +33202,83 @@
     <col min="51" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -33998,83 +33995,83 @@
     <col min="51" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:26" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -36218,83 +36215,83 @@
     <col min="25" max="25" width="14" style="111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -37125,83 +37122,83 @@
     <col min="51" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -38526,83 +38523,83 @@
     <col min="24" max="25" width="10.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -41129,83 +41126,83 @@
     <col min="51" max="16384" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -42718,83 +42715,83 @@
     <col min="51" max="16384" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -44893,83 +44890,83 @@
     <col min="51" max="16384" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -51195,83 +51192,83 @@
     <col min="25" max="25" width="13.7109375" style="111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:26" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -51518,7 +51515,7 @@
       <c r="X6" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="144"/>
+      <c r="Y6" s="143"/>
       <c r="Z6" s="116"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -52476,83 +52473,83 @@
     <col min="51" max="16384" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -52871,7 +52868,7 @@
       <c r="X6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="144"/>
+      <c r="Y6" s="143"/>
       <c r="Z6" s="28"/>
       <c r="AA6"/>
       <c r="AB6"/>
@@ -53581,83 +53578,83 @@
     <col min="51" max="16384" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -55000,83 +54997,83 @@
     <col min="51" max="16384" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -56288,83 +56285,83 @@
     <col min="26" max="26" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -57304,83 +57301,83 @@
     <col min="25" max="25" width="11.42578125" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -63449,83 +63446,83 @@
     <col min="25" max="25" width="11.42578125" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -66321,83 +66318,83 @@
     <col min="25" max="25" width="8.140625" style="111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -68370,83 +68367,83 @@
     <col min="51" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:26" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -68880,10 +68877,10 @@
       <c r="W9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="X9" s="145" t="s">
+      <c r="X9" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="145"/>
+      <c r="Y9" s="144"/>
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
@@ -68932,10 +68929,10 @@
         <v>17</v>
       </c>
       <c r="W10" s="17"/>
-      <c r="X10" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="145"/>
+      <c r="X10" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="144"/>
       <c r="Z10" s="4" t="s">
         <v>0</v>
       </c>
@@ -69038,10 +69035,10 @@
         <v>29</v>
       </c>
       <c r="W12" s="17"/>
-      <c r="X12" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="145"/>
+      <c r="X12" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="144"/>
       <c r="Z12" s="4" t="s">
         <v>0</v>
       </c>
@@ -69092,10 +69089,10 @@
       <c r="W13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="X13" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="145"/>
+      <c r="X13" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="144"/>
       <c r="Z13" s="4" t="s">
         <v>0</v>
       </c>
@@ -69144,10 +69141,10 @@
       <c r="W14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="X14" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="145"/>
+      <c r="X14" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="144"/>
       <c r="Z14" s="4" t="s">
         <v>0</v>
       </c>
@@ -69618,83 +69615,83 @@
     <col min="18" max="26" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:26" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>
@@ -70375,83 +70372,83 @@
     <col min="51" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141">
+    <row r="1" spans="1:50" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="140">
         <v>1</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="141">
         <v>2</v>
       </c>
-      <c r="C1" s="141">
+      <c r="C1" s="140">
         <v>3</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="141">
         <v>4</v>
       </c>
-      <c r="E1" s="141">
+      <c r="E1" s="140">
         <v>5</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="141">
         <v>6</v>
       </c>
-      <c r="G1" s="141">
+      <c r="G1" s="140">
         <v>7</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="141">
         <v>8</v>
       </c>
-      <c r="I1" s="141">
+      <c r="I1" s="140">
         <v>9</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="141">
         <v>10</v>
       </c>
-      <c r="K1" s="141">
+      <c r="K1" s="140">
         <v>11</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="141">
         <v>12</v>
       </c>
-      <c r="M1" s="141">
+      <c r="M1" s="140">
         <v>13</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="141">
         <v>14</v>
       </c>
-      <c r="O1" s="141">
+      <c r="O1" s="140">
         <v>15</v>
       </c>
-      <c r="P1" s="142">
+      <c r="P1" s="141">
         <v>16</v>
       </c>
-      <c r="Q1" s="141">
+      <c r="Q1" s="140">
         <v>17</v>
       </c>
-      <c r="R1" s="142">
+      <c r="R1" s="141">
         <v>18</v>
       </c>
-      <c r="S1" s="141">
+      <c r="S1" s="140">
         <v>19</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="141">
         <v>20</v>
       </c>
-      <c r="U1" s="141">
+      <c r="U1" s="140">
         <v>21</v>
       </c>
-      <c r="V1" s="142">
+      <c r="V1" s="141">
         <v>22</v>
       </c>
       <c r="W1" s="135">
         <v>23</v>
       </c>
-      <c r="X1" s="142">
+      <c r="X1" s="141">
         <v>24</v>
       </c>
-      <c r="Y1" s="141">
+      <c r="Y1" s="140">
         <v>25</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="141">
         <v>26</v>
       </c>
     </row>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.0.3.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.0.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="588" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="588"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11493" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11492" uniqueCount="441">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1093,12 +1093,6 @@
     <t>f5663c5a-d311-4ae4-be14-1575754be5f2</t>
   </si>
   <si>
-    <t>a) Please indicate the role of the economic operator in the group (leader, responsible for specific tasks...)</t>
-  </si>
-  <si>
-    <t>b) Please identify the other economic operators participating in the procurement procedure together</t>
-  </si>
-  <si>
     <t>Lots the EO tenders to</t>
   </si>
   <si>
@@ -1246,9 +1240,6 @@
     <t>If the relevant documentation is available electronically, please indicate:</t>
   </si>
   <si>
-    <t>c) Where applicable, name of the participating group:</t>
-  </si>
-  <si>
     <t>f5276600-a2b6-4ff6-a90e-b31fe19dae41</t>
   </si>
   <si>
@@ -1364,6 +1355,30 @@
   </si>
   <si>
     <t>CountryCodeIdentifier</t>
+  </si>
+  <si>
+    <t>ALPHA_INDICATOR</t>
+  </si>
+  <si>
+    <t>This has been added in v2.0.3. See CodeList "ResponseDataType".</t>
+  </si>
+  <si>
+    <t>This has been changed from 1 to 1..n in v2.0.3</t>
+  </si>
+  <si>
+    <t>Please indicate the role of the economic operator in the group (leader, responsible for specific tasks...)</t>
+  </si>
+  <si>
+    <t>Please identify the other economic operators participating in the procurement procedure together</t>
+  </si>
+  <si>
+    <t>Where applicable, name of the participating group:</t>
+  </si>
+  <si>
+    <t>EO_IDENTIFIER</t>
+  </si>
+  <si>
+    <t>Changed in v2.0.3 from DESCRIPTION to IDENTIFIER</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1957,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2310,6 +2325,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4480,7 +4501,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Z146"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4632,7 +4653,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -4831,7 +4852,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U6" s="49">
         <v>1</v>
@@ -4890,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="X7" s="24" t="s">
         <v>25</v>
@@ -4935,7 +4956,7 @@
         <v>26</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U8" s="49">
         <v>1</v>
@@ -4987,7 +5008,7 @@
         <v>28</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U9" s="49">
         <v>1</v>
@@ -5039,7 +5060,7 @@
         <v>30</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U10" s="49">
         <v>1</v>
@@ -5157,7 +5178,7 @@
       </c>
       <c r="Y12" s="24"/>
       <c r="Z12" s="133" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -5197,7 +5218,7 @@
         <v>33</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U13" s="49">
         <v>1</v>
@@ -5305,7 +5326,7 @@
         <v>35</v>
       </c>
       <c r="T15" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U15" s="49">
         <v>1</v>
@@ -5562,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X20" s="24" t="s">
         <v>14</v>
@@ -5600,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U21" s="49">
         <v>1</v>
@@ -5660,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X22" s="22" t="s">
         <v>25</v>
@@ -5703,7 +5724,7 @@
         <v>301</v>
       </c>
       <c r="T23" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U23" s="49" t="s">
         <v>20</v>
@@ -6049,7 +6070,7 @@
         <v>22</v>
       </c>
       <c r="T30" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U30" s="49">
         <v>1</v>
@@ -6108,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="X31" s="24" t="s">
         <v>25</v>
@@ -6153,7 +6174,7 @@
         <v>26</v>
       </c>
       <c r="T32" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U32" s="49">
         <v>1</v>
@@ -6205,7 +6226,7 @@
         <v>28</v>
       </c>
       <c r="T33" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U33" s="49">
         <v>1</v>
@@ -6257,7 +6278,7 @@
         <v>30</v>
       </c>
       <c r="T34" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U34" s="49">
         <v>1</v>
@@ -6375,7 +6396,7 @@
       </c>
       <c r="Y36" s="24"/>
       <c r="Z36" s="133" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -6415,7 +6436,7 @@
         <v>33</v>
       </c>
       <c r="T37" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U37" s="49">
         <v>1</v>
@@ -6523,7 +6544,7 @@
         <v>35</v>
       </c>
       <c r="T39" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U39" s="49">
         <v>1</v>
@@ -6780,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X44" s="24" t="s">
         <v>14</v>
@@ -6818,10 +6839,10 @@
         <v>0</v>
       </c>
       <c r="S45" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T45" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U45" s="49">
         <v>1</v>
@@ -6878,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X46" s="22" t="s">
         <v>25</v>
@@ -6921,7 +6942,7 @@
         <v>301</v>
       </c>
       <c r="T47" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U47" s="49" t="s">
         <v>20</v>
@@ -7277,7 +7298,7 @@
         <v>22</v>
       </c>
       <c r="T54" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U54" s="49">
         <v>1</v>
@@ -7336,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="X55" s="24" t="s">
         <v>25</v>
@@ -7381,7 +7402,7 @@
         <v>26</v>
       </c>
       <c r="T56" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U56" s="49">
         <v>1</v>
@@ -7433,7 +7454,7 @@
         <v>28</v>
       </c>
       <c r="T57" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U57" s="49">
         <v>1</v>
@@ -7485,7 +7506,7 @@
         <v>30</v>
       </c>
       <c r="T58" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U58" s="49">
         <v>1</v>
@@ -7603,7 +7624,7 @@
       </c>
       <c r="Y60" s="24"/>
       <c r="Z60" s="133" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -7643,7 +7664,7 @@
         <v>33</v>
       </c>
       <c r="T61" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U61" s="49">
         <v>1</v>
@@ -7751,7 +7772,7 @@
         <v>35</v>
       </c>
       <c r="T63" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U63" s="49">
         <v>1</v>
@@ -8008,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X68" s="24" t="s">
         <v>14</v>
@@ -8046,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="S69" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T69" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U69" s="49">
         <v>1</v>
@@ -8106,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="W70" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X70" s="22" t="s">
         <v>25</v>
@@ -8149,7 +8170,7 @@
         <v>301</v>
       </c>
       <c r="T71" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U71" s="49" t="s">
         <v>20</v>
@@ -8505,7 +8526,7 @@
         <v>22</v>
       </c>
       <c r="T78" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U78" s="49">
         <v>1</v>
@@ -8564,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="W79" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="X79" s="24" t="s">
         <v>25</v>
@@ -8609,7 +8630,7 @@
         <v>26</v>
       </c>
       <c r="T80" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U80" s="49">
         <v>1</v>
@@ -8661,7 +8682,7 @@
         <v>28</v>
       </c>
       <c r="T81" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U81" s="49">
         <v>1</v>
@@ -8713,7 +8734,7 @@
         <v>30</v>
       </c>
       <c r="T82" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U82" s="49">
         <v>1</v>
@@ -8831,7 +8852,7 @@
       </c>
       <c r="Y84" s="24"/>
       <c r="Z84" s="133" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -8871,7 +8892,7 @@
         <v>33</v>
       </c>
       <c r="T85" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U85" s="49">
         <v>1</v>
@@ -8979,7 +9000,7 @@
         <v>35</v>
       </c>
       <c r="T87" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U87" s="49">
         <v>1</v>
@@ -9236,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="W92" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X92" s="24" t="s">
         <v>14</v>
@@ -9274,10 +9295,10 @@
         <v>0</v>
       </c>
       <c r="S93" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T93" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U93" s="49">
         <v>1</v>
@@ -9334,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X94" s="22" t="s">
         <v>25</v>
@@ -9377,7 +9398,7 @@
         <v>301</v>
       </c>
       <c r="T95" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U95" s="49" t="s">
         <v>20</v>
@@ -9733,7 +9754,7 @@
         <v>22</v>
       </c>
       <c r="T102" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U102" s="49">
         <v>1</v>
@@ -9792,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="W103" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="X103" s="24" t="s">
         <v>25</v>
@@ -9837,7 +9858,7 @@
         <v>26</v>
       </c>
       <c r="T104" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U104" s="49">
         <v>1</v>
@@ -9889,7 +9910,7 @@
         <v>28</v>
       </c>
       <c r="T105" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U105" s="49">
         <v>1</v>
@@ -9941,7 +9962,7 @@
         <v>30</v>
       </c>
       <c r="T106" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U106" s="49">
         <v>1</v>
@@ -10059,7 +10080,7 @@
       </c>
       <c r="Y108" s="24"/>
       <c r="Z108" s="133" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="109" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -10099,7 +10120,7 @@
         <v>33</v>
       </c>
       <c r="T109" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U109" s="49">
         <v>1</v>
@@ -10207,7 +10228,7 @@
         <v>35</v>
       </c>
       <c r="T111" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U111" s="49">
         <v>1</v>
@@ -10464,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="W116" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X116" s="24" t="s">
         <v>14</v>
@@ -10502,10 +10523,10 @@
         <v>0</v>
       </c>
       <c r="S117" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T117" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U117" s="49">
         <v>1</v>
@@ -10562,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="W118" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X118" s="22" t="s">
         <v>25</v>
@@ -10605,7 +10626,7 @@
         <v>301</v>
       </c>
       <c r="T119" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U119" s="49" t="s">
         <v>20</v>
@@ -10959,7 +10980,7 @@
         <v>22</v>
       </c>
       <c r="T126" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U126" s="49">
         <v>1</v>
@@ -11018,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="W127" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="X127" s="24" t="s">
         <v>25</v>
@@ -11063,7 +11084,7 @@
         <v>26</v>
       </c>
       <c r="T128" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U128" s="49">
         <v>1</v>
@@ -11115,7 +11136,7 @@
         <v>28</v>
       </c>
       <c r="T129" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U129" s="49">
         <v>1</v>
@@ -11167,7 +11188,7 @@
         <v>30</v>
       </c>
       <c r="T130" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U130" s="49">
         <v>1</v>
@@ -11285,7 +11306,7 @@
       </c>
       <c r="Y132" s="24"/>
       <c r="Z132" s="133" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -11325,7 +11346,7 @@
         <v>33</v>
       </c>
       <c r="T133" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U133" s="49">
         <v>1</v>
@@ -11433,7 +11454,7 @@
         <v>35</v>
       </c>
       <c r="T135" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U135" s="49">
         <v>1</v>
@@ -11690,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="W140" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X140" s="24" t="s">
         <v>14</v>
@@ -11728,10 +11749,10 @@
         <v>0</v>
       </c>
       <c r="S141" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T141" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U141" s="49">
         <v>1</v>
@@ -11788,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="W142" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X142" s="22" t="s">
         <v>25</v>
@@ -11831,7 +11852,7 @@
         <v>301</v>
       </c>
       <c r="T143" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U143" s="49" t="s">
         <v>20</v>
@@ -12163,7 +12184,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -12375,7 +12396,7 @@
         <v>147</v>
       </c>
       <c r="T6" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="33">
         <v>1</v>
@@ -12488,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X8" s="24" t="s">
         <v>14</v>
@@ -12526,10 +12547,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U9" s="49">
         <v>1</v>
@@ -12586,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X10" s="22" t="s">
         <v>25</v>
@@ -12629,7 +12650,7 @@
         <v>301</v>
       </c>
       <c r="T11" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U11" s="49" t="s">
         <v>20</v>
@@ -12995,7 +13016,7 @@
         <v>147</v>
       </c>
       <c r="T18" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U18" s="33">
         <v>1</v>
@@ -13108,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X20" s="24" t="s">
         <v>14</v>
@@ -13146,10 +13167,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U21" s="49">
         <v>1</v>
@@ -13206,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X22" s="22" t="s">
         <v>25</v>
@@ -13249,7 +13270,7 @@
         <v>301</v>
       </c>
       <c r="T23" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U23" s="49" t="s">
         <v>20</v>
@@ -13568,7 +13589,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -13714,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="34" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="X5" s="35" t="s">
         <v>14</v>
@@ -13757,7 +13778,7 @@
         <v>147</v>
       </c>
       <c r="T6" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="33">
         <v>1</v>
@@ -13812,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="X7" s="34" t="s">
         <v>25</v>
@@ -13877,7 +13898,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U8" s="34">
         <v>1</v>
@@ -14082,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X11" s="24" t="s">
         <v>14</v>
@@ -14120,10 +14141,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U12" s="49">
         <v>1</v>
@@ -14180,7 +14201,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X13" s="22" t="s">
         <v>25</v>
@@ -14223,7 +14244,7 @@
         <v>301</v>
       </c>
       <c r="T14" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U14" s="49" t="s">
         <v>20</v>
@@ -14544,7 +14565,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="34" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="X20" s="35" t="s">
         <v>14</v>
@@ -14611,7 +14632,7 @@
         <v>147</v>
       </c>
       <c r="T21" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U21" s="33">
         <v>1</v>
@@ -14690,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="X22" s="34" t="s">
         <v>25</v>
@@ -14755,7 +14776,7 @@
         <v>35</v>
       </c>
       <c r="T23" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U23" s="34">
         <v>1</v>
@@ -14984,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X26" s="24" t="s">
         <v>14</v>
@@ -15022,10 +15043,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U27" s="49">
         <v>1</v>
@@ -15082,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X28" s="22" t="s">
         <v>25</v>
@@ -15125,7 +15146,7 @@
         <v>301</v>
       </c>
       <c r="T29" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U29" s="49" t="s">
         <v>20</v>
@@ -15476,7 +15497,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -15680,14 +15701,14 @@
       <c r="Q6" s="46"/>
       <c r="R6" s="17"/>
       <c r="S6" s="46" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T6" s="134"/>
       <c r="U6" s="94">
         <v>1</v>
       </c>
       <c r="V6" s="46" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="W6" s="46" t="s">
         <v>0</v>
@@ -15737,7 +15758,7 @@
         <v>165</v>
       </c>
       <c r="T7" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U7" s="94">
         <v>1</v>
@@ -15848,7 +15869,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X9" s="24" t="s">
         <v>14</v>
@@ -15884,10 +15905,10 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="17"/>
       <c r="S10" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U10" s="49">
         <v>1</v>
@@ -15942,7 +15963,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X11" s="22" t="s">
         <v>25</v>
@@ -15983,7 +16004,7 @@
         <v>301</v>
       </c>
       <c r="T12" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U12" s="49" t="s">
         <v>20</v>
@@ -16301,7 +16322,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -16339,7 +16360,7 @@
         <v>170</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="T3" s="47"/>
       <c r="U3" s="47" t="s">
@@ -16502,7 +16523,7 @@
         <v>174</v>
       </c>
       <c r="T6" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -16558,7 +16579,7 @@
         <v>176</v>
       </c>
       <c r="T7" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U7" s="52">
         <v>1</v>
@@ -16669,7 +16690,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X9" s="24" t="s">
         <v>14</v>
@@ -16707,10 +16728,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U10" s="49">
         <v>1</v>
@@ -16767,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X11" s="22" t="s">
         <v>25</v>
@@ -16810,7 +16831,7 @@
         <v>301</v>
       </c>
       <c r="T12" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U12" s="49" t="s">
         <v>20</v>
@@ -17158,7 +17179,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -17359,7 +17380,7 @@
         <v>174</v>
       </c>
       <c r="T6" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -17415,7 +17436,7 @@
         <v>176</v>
       </c>
       <c r="T7" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U7" s="52">
         <v>1</v>
@@ -17526,7 +17547,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X9" s="24" t="s">
         <v>14</v>
@@ -17564,10 +17585,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U10" s="49">
         <v>1</v>
@@ -17624,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X11" s="22" t="s">
         <v>25</v>
@@ -17667,7 +17688,7 @@
         <v>301</v>
       </c>
       <c r="T12" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U12" s="49" t="s">
         <v>20</v>
@@ -17983,7 +18004,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -18140,7 +18161,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="17"/>
-      <c r="U5" s="94" t="s">
+      <c r="U5" s="146" t="s">
         <v>20</v>
       </c>
       <c r="V5" s="20" t="s">
@@ -18153,8 +18174,8 @@
         <v>14</v>
       </c>
       <c r="Y5" s="20"/>
-      <c r="Z5" s="17" t="s">
-        <v>164</v>
+      <c r="Z5" s="133" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="66" customFormat="1" x14ac:dyDescent="0.25">
@@ -18193,16 +18214,16 @@
         <v>0</v>
       </c>
       <c r="S6" s="46" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T6" s="134" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="U6" s="94">
         <v>1</v>
       </c>
       <c r="V6" s="46" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="W6" s="46" t="s">
         <v>0</v>
@@ -18254,7 +18275,7 @@
         <v>165</v>
       </c>
       <c r="T7" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U7" s="46">
         <v>1</v>
@@ -18369,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X9" s="24" t="s">
         <v>14</v>
@@ -18407,10 +18428,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U10" s="49">
         <v>1</v>
@@ -18467,7 +18488,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X11" s="22" t="s">
         <v>25</v>
@@ -18510,7 +18531,7 @@
         <v>301</v>
       </c>
       <c r="T12" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U12" s="49" t="s">
         <v>20</v>
@@ -18835,7 +18856,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -19118,7 +19139,7 @@
         <v>186</v>
       </c>
       <c r="T6" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="76">
         <v>1</v>
@@ -19279,7 +19300,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X8" s="24" t="s">
         <v>14</v>
@@ -19315,10 +19336,10 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="45"/>
       <c r="S9" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U9" s="49">
         <v>1</v>
@@ -19373,7 +19394,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X10" s="22" t="s">
         <v>25</v>
@@ -19414,7 +19435,7 @@
         <v>301</v>
       </c>
       <c r="T11" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U11" s="49" t="s">
         <v>20</v>
@@ -19607,9 +19628,7 @@
   <sheetPr codeName="Hoja17"/>
   <dimension ref="A1:AX15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19765,7 +19784,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -19911,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="131" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="X5" s="49" t="s">
         <v>14</v>
@@ -19976,7 +19995,7 @@
         <v>2</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="49" t="s">
         <v>13</v>
@@ -20041,7 +20060,7 @@
       <c r="Q7" s="45"/>
       <c r="R7" s="45"/>
       <c r="S7" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="T7" s="45"/>
       <c r="U7" s="49">
@@ -20191,7 +20210,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X9" s="24" t="s">
         <v>14</v>
@@ -20229,10 +20248,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U10" s="49">
         <v>1</v>
@@ -20289,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X11" s="22" t="s">
         <v>25</v>
@@ -20332,7 +20351,7 @@
         <v>301</v>
       </c>
       <c r="T12" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U12" s="49" t="s">
         <v>20</v>
@@ -20680,7 +20699,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -20953,7 +20972,7 @@
         <v>165</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="49">
         <v>1</v>
@@ -21108,7 +21127,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X8" s="24" t="s">
         <v>14</v>
@@ -21146,10 +21165,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U9" s="49">
         <v>1</v>
@@ -21206,7 +21225,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X10" s="22" t="s">
         <v>25</v>
@@ -21249,7 +21268,7 @@
         <v>301</v>
       </c>
       <c r="T11" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U11" s="49" t="s">
         <v>20</v>
@@ -21599,7 +21618,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -21639,7 +21658,7 @@
         <v>196</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="T3" s="50"/>
       <c r="U3" s="50" t="s">
@@ -21872,7 +21891,7 @@
         <v>35</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="49">
         <v>1</v>
@@ -22025,7 +22044,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X8" s="24" t="s">
         <v>14</v>
@@ -22061,10 +22080,10 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U9" s="49">
         <v>1</v>
@@ -22119,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X10" s="22" t="s">
         <v>25</v>
@@ -22160,7 +22179,7 @@
         <v>301</v>
       </c>
       <c r="T11" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U11" s="49" t="s">
         <v>20</v>
@@ -22354,9 +22373,7 @@
   </sheetPr>
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y43" sqref="Y43"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22510,7 +22527,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -22641,8 +22658,8 @@
       <c r="T5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="94" t="s">
-        <v>0</v>
+      <c r="U5" s="94">
+        <v>1</v>
       </c>
       <c r="V5" s="17" t="s">
         <v>0</v>
@@ -22687,7 +22704,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U6" s="94" t="s">
         <v>0</v>
@@ -22785,7 +22802,7 @@
         <v>64</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U8" s="94">
         <v>1</v>
@@ -22800,7 +22817,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Z8" s="17" t="s">
         <v>0</v>
@@ -22837,7 +22854,7 @@
         <v>66</v>
       </c>
       <c r="T9" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="U9" s="94">
         <v>1</v>
@@ -22939,7 +22956,7 @@
         <v>69</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U11" s="94">
         <v>1</v>
@@ -22996,7 +23013,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="X12" s="17" t="s">
         <v>25</v>
@@ -23041,7 +23058,7 @@
         <v>70</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="U13" s="94">
         <v>1</v>
@@ -23104,7 +23121,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="X14" s="17" t="s">
         <v>14</v>
@@ -23151,7 +23168,7 @@
         <v>73</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U15" s="94">
         <v>1</v>
@@ -23206,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="X16" s="17" t="s">
         <v>25</v>
@@ -23249,7 +23266,7 @@
         <v>35</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="U17" s="94">
         <v>1</v>
@@ -23406,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="17" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="X21" s="17" t="s">
         <v>72</v>
@@ -23449,7 +23466,7 @@
         <v>71</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U22" s="94">
         <v>1</v>
@@ -23510,7 +23527,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="X23" s="17" t="s">
         <v>25</v>
@@ -23555,7 +23572,7 @@
         <v>288</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="U24" s="94">
         <v>1</v>
@@ -23609,7 +23626,7 @@
         <v>289</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="U25" s="94">
         <v>1</v>
@@ -23876,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X31" s="17" t="s">
         <v>14</v>
@@ -23914,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U32" s="94">
         <v>1</v>
@@ -23974,7 +23991,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X33" s="17" t="s">
         <v>25</v>
@@ -24017,7 +24034,7 @@
         <v>301</v>
       </c>
       <c r="T34" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U34" s="94" t="s">
         <v>20</v>
@@ -24305,8 +24322,8 @@
       <c r="T40" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="U40" s="94" t="s">
-        <v>0</v>
+      <c r="U40" s="94">
+        <v>1</v>
       </c>
       <c r="V40" s="17" t="s">
         <v>0</v>
@@ -24351,7 +24368,7 @@
         <v>22</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U41" s="94" t="s">
         <v>0</v>
@@ -24449,7 +24466,7 @@
         <v>64</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U43" s="94">
         <v>1</v>
@@ -24464,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Z43" s="17" t="s">
         <v>0</v>
@@ -24501,7 +24518,7 @@
         <v>66</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="U44" s="94">
         <v>1</v>
@@ -24603,7 +24620,7 @@
         <v>69</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U46" s="94">
         <v>1</v>
@@ -24660,7 +24677,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="X47" s="17" t="s">
         <v>25</v>
@@ -24705,7 +24722,7 @@
         <v>70</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="U48" s="94">
         <v>1</v>
@@ -24768,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="X49" s="17" t="s">
         <v>14</v>
@@ -24815,7 +24832,7 @@
         <v>73</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U50" s="94">
         <v>1</v>
@@ -24870,7 +24887,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="X51" s="17" t="s">
         <v>25</v>
@@ -24913,7 +24930,7 @@
         <v>35</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="U52" s="94">
         <v>1</v>
@@ -25070,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="17" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="X56" s="17" t="s">
         <v>72</v>
@@ -25113,7 +25130,7 @@
         <v>71</v>
       </c>
       <c r="T57" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U57" s="94">
         <v>1</v>
@@ -25174,7 +25191,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="X58" s="17" t="s">
         <v>25</v>
@@ -25219,7 +25236,7 @@
         <v>288</v>
       </c>
       <c r="T59" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="U59" s="94">
         <v>1</v>
@@ -25273,7 +25290,7 @@
         <v>289</v>
       </c>
       <c r="T60" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="U60" s="94">
         <v>1</v>
@@ -25540,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X66" s="17" t="s">
         <v>14</v>
@@ -25578,10 +25595,10 @@
         <v>0</v>
       </c>
       <c r="S67" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T67" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U67" s="94">
         <v>1</v>
@@ -25638,7 +25655,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X68" s="17" t="s">
         <v>25</v>
@@ -25681,7 +25698,7 @@
         <v>301</v>
       </c>
       <c r="T69" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U69" s="94" t="s">
         <v>20</v>
@@ -26002,7 +26019,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -26160,7 +26177,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="131" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="X5" s="24" t="s">
         <v>14</v>
@@ -26207,7 +26224,7 @@
         <v>2</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="49">
         <v>1</v>
@@ -26263,7 +26280,7 @@
         <v>165</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U7" s="49">
         <v>1</v>
@@ -26316,16 +26333,16 @@
         <v>0</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="T8" s="137" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="U8" s="49">
         <v>1</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="W8" s="22" t="s">
         <v>0</v>
@@ -26375,7 +26392,7 @@
         <v>204</v>
       </c>
       <c r="T9" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U9" s="49">
         <v>1</v>
@@ -26486,7 +26503,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X11" s="24" t="s">
         <v>14</v>
@@ -26524,10 +26541,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U12" s="49">
         <v>1</v>
@@ -26584,7 +26601,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X13" s="22" t="s">
         <v>25</v>
@@ -26627,7 +26644,7 @@
         <v>301</v>
       </c>
       <c r="T14" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U14" s="49" t="s">
         <v>20</v>
@@ -26910,7 +26927,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="131" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="X20" s="24" t="s">
         <v>14</v>
@@ -26957,7 +26974,7 @@
         <v>2</v>
       </c>
       <c r="T21" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U21" s="49">
         <v>1</v>
@@ -27013,7 +27030,7 @@
         <v>165</v>
       </c>
       <c r="T22" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U22" s="49">
         <v>1</v>
@@ -27066,16 +27083,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="T23" s="137" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="U23" s="49">
         <v>1</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="W23" s="22" t="s">
         <v>0</v>
@@ -27125,7 +27142,7 @@
         <v>204</v>
       </c>
       <c r="T24" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U24" s="49">
         <v>1</v>
@@ -27236,7 +27253,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X26" s="24" t="s">
         <v>14</v>
@@ -27274,10 +27291,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U27" s="49">
         <v>1</v>
@@ -27334,7 +27351,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X28" s="22" t="s">
         <v>25</v>
@@ -27377,7 +27394,7 @@
         <v>301</v>
       </c>
       <c r="T29" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U29" s="49" t="s">
         <v>20</v>
@@ -27662,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="131" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="X35" s="24" t="s">
         <v>14</v>
@@ -27709,7 +27726,7 @@
         <v>2</v>
       </c>
       <c r="T36" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U36" s="49">
         <v>1</v>
@@ -27765,7 +27782,7 @@
         <v>165</v>
       </c>
       <c r="T37" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U37" s="49">
         <v>1</v>
@@ -27818,16 +27835,16 @@
         <v>0</v>
       </c>
       <c r="S38" s="22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="T38" s="137" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="U38" s="49">
         <v>1</v>
       </c>
       <c r="V38" s="22" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="W38" s="22" t="s">
         <v>0</v>
@@ -27877,7 +27894,7 @@
         <v>204</v>
       </c>
       <c r="T39" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U39" s="49">
         <v>1</v>
@@ -27988,7 +28005,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X41" s="24" t="s">
         <v>14</v>
@@ -28026,10 +28043,10 @@
         <v>0</v>
       </c>
       <c r="S42" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T42" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U42" s="49">
         <v>1</v>
@@ -28086,7 +28103,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X43" s="22" t="s">
         <v>25</v>
@@ -28129,7 +28146,7 @@
         <v>301</v>
       </c>
       <c r="T44" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U44" s="49" t="s">
         <v>20</v>
@@ -28281,9 +28298,7 @@
   <sheetPr codeName="Hoja21"/>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28433,7 +28448,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -28620,7 +28635,7 @@
         <v>35</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -28727,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X8" s="24" t="s">
         <v>14</v>
@@ -28765,10 +28780,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U9" s="49">
         <v>1</v>
@@ -28825,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X10" s="22" t="s">
         <v>25</v>
@@ -28868,7 +28883,7 @@
         <v>301</v>
       </c>
       <c r="T11" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U11" s="49" t="s">
         <v>20</v>
@@ -29202,7 +29217,7 @@
         <v>35</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U18" s="52">
         <v>1</v>
@@ -29309,7 +29324,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X20" s="24" t="s">
         <v>14</v>
@@ -29347,10 +29362,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U21" s="49">
         <v>1</v>
@@ -29407,7 +29422,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X22" s="22" t="s">
         <v>25</v>
@@ -29450,7 +29465,7 @@
         <v>301</v>
       </c>
       <c r="T23" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U23" s="49" t="s">
         <v>20</v>
@@ -29794,7 +29809,7 @@
         <v>35</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U30" s="52">
         <v>1</v>
@@ -29901,7 +29916,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X32" s="24" t="s">
         <v>14</v>
@@ -29939,10 +29954,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T33" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U33" s="49">
         <v>1</v>
@@ -29999,7 +30014,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X34" s="22" t="s">
         <v>25</v>
@@ -30042,7 +30057,7 @@
         <v>301</v>
       </c>
       <c r="T35" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U35" s="49" t="s">
         <v>20</v>
@@ -30386,7 +30401,7 @@
         <v>35</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U42" s="52">
         <v>1</v>
@@ -30493,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X44" s="24" t="s">
         <v>14</v>
@@ -30531,10 +30546,10 @@
         <v>0</v>
       </c>
       <c r="S45" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T45" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U45" s="49">
         <v>1</v>
@@ -30591,7 +30606,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X46" s="22" t="s">
         <v>25</v>
@@ -30634,7 +30649,7 @@
         <v>301</v>
       </c>
       <c r="T47" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U47" s="49" t="s">
         <v>20</v>
@@ -30978,7 +30993,7 @@
         <v>35</v>
       </c>
       <c r="T54" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U54" s="52">
         <v>1</v>
@@ -31085,7 +31100,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X56" s="24" t="s">
         <v>14</v>
@@ -31123,10 +31138,10 @@
         <v>0</v>
       </c>
       <c r="S57" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T57" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U57" s="49">
         <v>1</v>
@@ -31183,7 +31198,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X58" s="22" t="s">
         <v>25</v>
@@ -31226,7 +31241,7 @@
         <v>301</v>
       </c>
       <c r="T59" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U59" s="49" t="s">
         <v>20</v>
@@ -31570,7 +31585,7 @@
         <v>35</v>
       </c>
       <c r="T66" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U66" s="52">
         <v>1</v>
@@ -31677,7 +31692,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X68" s="24" t="s">
         <v>14</v>
@@ -31715,10 +31730,10 @@
         <v>0</v>
       </c>
       <c r="S69" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T69" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U69" s="49">
         <v>1</v>
@@ -31775,7 +31790,7 @@
         <v>0</v>
       </c>
       <c r="W70" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X70" s="22" t="s">
         <v>25</v>
@@ -31818,7 +31833,7 @@
         <v>301</v>
       </c>
       <c r="T71" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U71" s="49" t="s">
         <v>20</v>
@@ -32162,7 +32177,7 @@
         <v>35</v>
       </c>
       <c r="T78" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U78" s="52">
         <v>1</v>
@@ -32269,7 +32284,7 @@
         <v>0</v>
       </c>
       <c r="W80" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X80" s="24" t="s">
         <v>14</v>
@@ -32307,10 +32322,10 @@
         <v>0</v>
       </c>
       <c r="S81" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T81" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U81" s="49">
         <v>1</v>
@@ -32367,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="W82" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X82" s="22" t="s">
         <v>25</v>
@@ -32410,7 +32425,7 @@
         <v>301</v>
       </c>
       <c r="T83" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U83" s="49" t="s">
         <v>20</v>
@@ -32754,7 +32769,7 @@
         <v>35</v>
       </c>
       <c r="T90" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U90" s="52">
         <v>1</v>
@@ -32861,7 +32876,7 @@
         <v>0</v>
       </c>
       <c r="W92" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X92" s="24" t="s">
         <v>14</v>
@@ -32899,10 +32914,10 @@
         <v>0</v>
       </c>
       <c r="S93" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T93" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U93" s="49">
         <v>1</v>
@@ -32959,7 +32974,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X94" s="22" t="s">
         <v>25</v>
@@ -33002,7 +33017,7 @@
         <v>301</v>
       </c>
       <c r="T95" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U95" s="49" t="s">
         <v>20</v>
@@ -33181,9 +33196,7 @@
   <sheetPr codeName="Hoja22"/>
   <dimension ref="A1:AX14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33336,7 +33349,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -33535,7 +33548,7 @@
         <v>259</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -33648,7 +33661,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X8" s="24" t="s">
         <v>14</v>
@@ -33686,10 +33699,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U9" s="49">
         <v>1</v>
@@ -33744,7 +33757,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X10" s="22" t="s">
         <v>25</v>
@@ -33785,7 +33798,7 @@
         <v>301</v>
       </c>
       <c r="T11" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U11" s="49" t="s">
         <v>20</v>
@@ -34129,7 +34142,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -34318,7 +34331,7 @@
         <v>247</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -34366,7 +34379,7 @@
         <v>249</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U7" s="52">
         <v>1</v>
@@ -34506,7 +34519,7 @@
         <v>247</v>
       </c>
       <c r="T10" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U10" s="52">
         <v>1</v>
@@ -34554,7 +34567,7 @@
         <v>249</v>
       </c>
       <c r="T11" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U11" s="52">
         <v>1</v>
@@ -34694,7 +34707,7 @@
         <v>247</v>
       </c>
       <c r="T14" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U14" s="52">
         <v>1</v>
@@ -34742,7 +34755,7 @@
         <v>249</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U15" s="52">
         <v>1</v>
@@ -34845,7 +34858,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X17" s="24" t="s">
         <v>14</v>
@@ -34883,10 +34896,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U18" s="49">
         <v>1</v>
@@ -34941,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X19" s="22" t="s">
         <v>25</v>
@@ -34982,7 +34995,7 @@
         <v>301</v>
       </c>
       <c r="T20" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U20" s="49" t="s">
         <v>20</v>
@@ -35342,7 +35355,7 @@
         <v>247</v>
       </c>
       <c r="T27" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U27" s="52">
         <v>1</v>
@@ -35390,7 +35403,7 @@
         <v>249</v>
       </c>
       <c r="T28" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U28" s="52">
         <v>1</v>
@@ -35530,7 +35543,7 @@
         <v>247</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U31" s="52">
         <v>1</v>
@@ -35578,7 +35591,7 @@
         <v>249</v>
       </c>
       <c r="T32" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U32" s="52">
         <v>1</v>
@@ -35718,7 +35731,7 @@
         <v>247</v>
       </c>
       <c r="T35" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U35" s="52">
         <v>1</v>
@@ -35766,7 +35779,7 @@
         <v>249</v>
       </c>
       <c r="T36" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U36" s="52">
         <v>1</v>
@@ -35869,7 +35882,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X38" s="24" t="s">
         <v>14</v>
@@ -35907,10 +35920,10 @@
         <v>0</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T39" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U39" s="49">
         <v>1</v>
@@ -35965,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X40" s="22" t="s">
         <v>25</v>
@@ -36006,7 +36019,7 @@
         <v>301</v>
       </c>
       <c r="T41" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U41" s="49" t="s">
         <v>20</v>
@@ -36349,7 +36362,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -36404,7 +36417,7 @@
         <v>262</v>
       </c>
       <c r="X3" s="124" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Y3" s="124"/>
       <c r="Z3" s="3" t="s">
@@ -36610,7 +36623,7 @@
         <v>186</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="4">
         <v>1</v>
@@ -36773,7 +36786,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X8" s="24" t="s">
         <v>14</v>
@@ -36811,10 +36824,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U9" s="49">
         <v>1</v>
@@ -36869,7 +36882,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X10" s="22" t="s">
         <v>25</v>
@@ -36910,7 +36923,7 @@
         <v>301</v>
       </c>
       <c r="T11" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U11" s="49" t="s">
         <v>20</v>
@@ -37256,7 +37269,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -37449,7 +37462,7 @@
         <v>147</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -37562,7 +37575,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X8" s="24" t="s">
         <v>14</v>
@@ -37600,10 +37613,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U9" s="49">
         <v>1</v>
@@ -37658,7 +37671,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X10" s="22" t="s">
         <v>25</v>
@@ -37699,7 +37712,7 @@
         <v>301</v>
       </c>
       <c r="T11" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U11" s="49" t="s">
         <v>20</v>
@@ -38063,7 +38076,7 @@
         <v>147</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U18" s="52">
         <v>1</v>
@@ -38176,7 +38189,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X20" s="24" t="s">
         <v>14</v>
@@ -38214,10 +38227,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U21" s="49">
         <v>1</v>
@@ -38272,7 +38285,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X22" s="22" t="s">
         <v>25</v>
@@ -38313,7 +38326,7 @@
         <v>301</v>
       </c>
       <c r="T23" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U23" s="49" t="s">
         <v>20</v>
@@ -38657,7 +38670,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -38884,7 +38897,7 @@
         <v>147</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -39006,7 +39019,7 @@
         <v>279</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U8" s="52">
         <v>1</v>
@@ -39159,7 +39172,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X11" s="24" t="s">
         <v>14</v>
@@ -39197,10 +39210,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U12" s="49">
         <v>1</v>
@@ -39255,7 +39268,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X13" s="22" t="s">
         <v>25</v>
@@ -39296,7 +39309,7 @@
         <v>301</v>
       </c>
       <c r="T14" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U14" s="49" t="s">
         <v>20</v>
@@ -39692,7 +39705,7 @@
         <v>147</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U21" s="52">
         <v>1</v>
@@ -39814,7 +39827,7 @@
         <v>279</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U23" s="52">
         <v>1</v>
@@ -39965,7 +39978,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X26" s="24" t="s">
         <v>14</v>
@@ -40003,10 +40016,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U27" s="49">
         <v>1</v>
@@ -40061,7 +40074,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X28" s="22" t="s">
         <v>25</v>
@@ -40102,7 +40115,7 @@
         <v>301</v>
       </c>
       <c r="T29" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U29" s="49" t="s">
         <v>20</v>
@@ -40500,7 +40513,7 @@
         <v>147</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U36" s="52">
         <v>1</v>
@@ -40622,7 +40635,7 @@
         <v>279</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U38" s="52">
         <v>1</v>
@@ -40775,7 +40788,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X41" s="24" t="s">
         <v>14</v>
@@ -40813,10 +40826,10 @@
         <v>0</v>
       </c>
       <c r="S42" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T42" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U42" s="49">
         <v>1</v>
@@ -40871,7 +40884,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X43" s="22" t="s">
         <v>25</v>
@@ -40912,7 +40925,7 @@
         <v>301</v>
       </c>
       <c r="T44" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U44" s="49" t="s">
         <v>20</v>
@@ -41260,7 +41273,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -41445,7 +41458,7 @@
         <v>147</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U5" s="99">
         <v>1</v>
@@ -41589,7 +41602,7 @@
         <v>331</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U7" s="99" t="s">
         <v>13</v>
@@ -41661,7 +41674,7 @@
         <v>333</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U8" s="99" t="s">
         <v>13</v>
@@ -41866,7 +41879,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X11" s="24" t="s">
         <v>14</v>
@@ -41904,10 +41917,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U12" s="49">
         <v>1</v>
@@ -41962,7 +41975,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X13" s="22" t="s">
         <v>25</v>
@@ -42003,7 +42016,7 @@
         <v>301</v>
       </c>
       <c r="T14" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U14" s="49" t="s">
         <v>20</v>
@@ -42849,7 +42862,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -42967,7 +42980,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="131" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X4" s="99" t="s">
         <v>14</v>
@@ -43034,7 +43047,7 @@
         <v>147</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U5" s="99">
         <v>1</v>
@@ -43113,7 +43126,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="131" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="X6" s="101" t="s">
         <v>25</v>
@@ -43169,10 +43182,10 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="96"/>
       <c r="S7" s="28" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U7" s="99">
         <v>1</v>
@@ -43237,10 +43250,10 @@
       <c r="Q8" s="34"/>
       <c r="R8" s="96"/>
       <c r="S8" s="28" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U8" s="99" t="s">
         <v>13</v>
@@ -43305,10 +43318,10 @@
       <c r="Q9" s="34"/>
       <c r="R9" s="96"/>
       <c r="S9" s="28" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="T9" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U9" s="99" t="s">
         <v>13</v>
@@ -43373,7 +43386,7 @@
       <c r="U10" s="99"/>
       <c r="V10" s="28"/>
       <c r="W10" s="131" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="X10" s="101" t="s">
         <v>14</v>
@@ -43429,10 +43442,10 @@
       <c r="Q11" s="34"/>
       <c r="R11" s="96"/>
       <c r="S11" s="28" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="T11" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U11" s="99">
         <v>1</v>
@@ -43621,7 +43634,7 @@
       <c r="U14" s="99"/>
       <c r="V14" s="28"/>
       <c r="W14" s="131" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="X14" s="101" t="s">
         <v>72</v>
@@ -43675,7 +43688,7 @@
       <c r="Q15" s="34"/>
       <c r="R15" s="96"/>
       <c r="S15" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="T15" s="28"/>
       <c r="U15" s="99">
@@ -43735,7 +43748,7 @@
       <c r="Q16" s="34"/>
       <c r="R16" s="96"/>
       <c r="S16" s="131" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="T16" s="28"/>
       <c r="U16" s="99">
@@ -43921,7 +43934,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X19" s="24" t="s">
         <v>14</v>
@@ -43959,10 +43972,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U20" s="49">
         <v>1</v>
@@ -44017,7 +44030,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X21" s="22" t="s">
         <v>25</v>
@@ -44058,7 +44071,7 @@
         <v>301</v>
       </c>
       <c r="T22" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U22" s="49" t="s">
         <v>20</v>
@@ -44884,7 +44897,7 @@
     <col min="19" max="20" width="11.42578125" style="39"/>
     <col min="21" max="21" width="11.42578125" style="97"/>
     <col min="22" max="23" width="11.42578125" style="39"/>
-    <col min="24" max="24" width="48.28515625" style="97" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23" style="97" customWidth="1"/>
     <col min="25" max="25" width="13.42578125" style="97" customWidth="1"/>
     <col min="26" max="26" width="11.42578125" style="39"/>
     <col min="51" max="16384" width="11.42578125" style="39"/>
@@ -45024,7 +45037,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -45209,7 +45222,7 @@
         <v>147</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U5" s="99">
         <v>1</v>
@@ -45344,21 +45357,23 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="96"/>
       <c r="S7" s="28" t="s">
-        <v>345</v>
+        <v>436</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U7" s="99">
         <v>1</v>
       </c>
-      <c r="V7" s="28" t="s">
-        <v>29</v>
+      <c r="V7" s="145" t="s">
+        <v>439</v>
       </c>
       <c r="W7" s="100"/>
       <c r="X7" s="101"/>
       <c r="Y7" s="101"/>
-      <c r="Z7" s="28"/>
+      <c r="Z7" s="145" t="s">
+        <v>440</v>
+      </c>
       <c r="AA7"/>
       <c r="AB7"/>
       <c r="AC7"/>
@@ -45412,10 +45427,10 @@
       <c r="Q8" s="34"/>
       <c r="R8" s="96"/>
       <c r="S8" s="28" t="s">
-        <v>346</v>
+        <v>437</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U8" s="99" t="s">
         <v>13</v>
@@ -45478,10 +45493,10 @@
       <c r="Q9" s="34"/>
       <c r="R9" s="96"/>
       <c r="S9" s="28" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="T9" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U9" s="99" t="s">
         <v>13</v>
@@ -45686,7 +45701,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X12" s="24" t="s">
         <v>14</v>
@@ -45724,10 +45739,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U13" s="49">
         <v>1</v>
@@ -45782,7 +45797,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X14" s="22" t="s">
         <v>25</v>
@@ -45823,7 +45838,7 @@
         <v>301</v>
       </c>
       <c r="T15" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U15" s="49" t="s">
         <v>20</v>
@@ -46630,7 +46645,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AX65"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -46789,7 +46804,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -47084,7 +47099,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U6" s="94">
         <v>1</v>
@@ -47238,7 +47253,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U8" s="94">
         <v>1</v>
@@ -47392,7 +47407,7 @@
         <v>33</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U10" s="94">
         <v>1</v>
@@ -47548,7 +47563,7 @@
         <v>35</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U12" s="94">
         <v>1</v>
@@ -47935,7 +47950,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X17" s="24" t="s">
         <v>14</v>
@@ -47973,10 +47988,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U18" s="49">
         <v>1</v>
@@ -48033,7 +48048,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X19" s="22" t="s">
         <v>25</v>
@@ -48076,7 +48091,7 @@
         <v>301</v>
       </c>
       <c r="T20" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U20" s="49" t="s">
         <v>20</v>
@@ -48532,7 +48547,7 @@
         <v>22</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U27" s="94">
         <v>1</v>
@@ -48686,7 +48701,7 @@
         <v>35</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U29" s="94">
         <v>1</v>
@@ -48840,7 +48855,7 @@
         <v>33</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U31" s="94">
         <v>1</v>
@@ -48996,7 +49011,7 @@
         <v>35</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U33" s="94">
         <v>1</v>
@@ -49383,7 +49398,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X38" s="24" t="s">
         <v>14</v>
@@ -49421,10 +49436,10 @@
         <v>0</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T39" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U39" s="49">
         <v>1</v>
@@ -49481,7 +49496,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X40" s="22" t="s">
         <v>25</v>
@@ -49524,7 +49539,7 @@
         <v>301</v>
       </c>
       <c r="T41" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U41" s="49" t="s">
         <v>20</v>
@@ -49982,7 +49997,7 @@
         <v>22</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U48" s="94">
         <v>1</v>
@@ -50136,7 +50151,7 @@
         <v>35</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U50" s="94">
         <v>1</v>
@@ -50290,7 +50305,7 @@
         <v>33</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U52" s="94">
         <v>1</v>
@@ -50446,7 +50461,7 @@
         <v>35</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U54" s="94">
         <v>1</v>
@@ -50833,7 +50848,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X59" s="24" t="s">
         <v>14</v>
@@ -50871,10 +50886,10 @@
         <v>0</v>
       </c>
       <c r="S60" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T60" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U60" s="49">
         <v>1</v>
@@ -50931,7 +50946,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X61" s="22" t="s">
         <v>25</v>
@@ -50974,7 +50989,7 @@
         <v>301</v>
       </c>
       <c r="T62" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U62" s="49" t="s">
         <v>20</v>
@@ -51173,9 +51188,7 @@
   <sheetPr codeName="Hoja30"/>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -51326,7 +51339,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -51363,19 +51376,19 @@
       <c r="P3" s="114"/>
       <c r="Q3" s="114"/>
       <c r="R3" s="114" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S3" s="120" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T3" s="114"/>
       <c r="U3" s="115"/>
       <c r="V3" s="114"/>
       <c r="W3" s="120" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="X3" s="120" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Y3" s="120"/>
       <c r="Z3" s="114" t="s">
@@ -51420,7 +51433,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="111" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="X4" s="118" t="s">
         <v>14</v>
@@ -51510,7 +51523,7 @@
       </c>
       <c r="V6" s="116"/>
       <c r="W6" s="119" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="X6" s="123" t="s">
         <v>25</v>
@@ -51540,10 +51553,10 @@
       <c r="Q7" s="116"/>
       <c r="R7" s="118"/>
       <c r="S7" s="116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="T7" s="116" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U7" s="118">
         <v>1</v>
@@ -51578,16 +51591,16 @@
       <c r="Q8" s="116"/>
       <c r="R8" s="118"/>
       <c r="S8" s="116" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T8" s="116" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U8" s="118">
         <v>1</v>
       </c>
       <c r="V8" s="116" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="W8" s="119"/>
       <c r="X8" s="122"/>
@@ -51616,10 +51629,10 @@
       <c r="Q9" s="116"/>
       <c r="R9" s="118"/>
       <c r="S9" s="116" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="T9" s="116" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="U9" s="118">
         <v>1</v>
@@ -51732,7 +51745,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X12" s="24" t="s">
         <v>14</v>
@@ -51770,10 +51783,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U13" s="49">
         <v>1</v>
@@ -51828,7 +51841,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X14" s="22" t="s">
         <v>25</v>
@@ -51869,7 +51882,7 @@
         <v>301</v>
       </c>
       <c r="T15" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U15" s="49" t="s">
         <v>20</v>
@@ -52607,7 +52620,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -52644,19 +52657,19 @@
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S3" s="98" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="95"/>
       <c r="V3" s="31"/>
       <c r="W3" s="98" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="X3" s="104" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Y3" s="104"/>
       <c r="Z3" s="31" t="s">
@@ -52725,7 +52738,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="X4" s="99" t="s">
         <v>14</v>
@@ -52792,7 +52805,7 @@
         <v>147</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U5" s="99">
         <v>1</v>
@@ -52863,7 +52876,7 @@
       </c>
       <c r="V6" s="28"/>
       <c r="W6" s="100" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="X6" s="105" t="s">
         <v>25</v>
@@ -52917,10 +52930,10 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="96"/>
       <c r="S7" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U7" s="99">
         <v>1</v>
@@ -52979,16 +52992,16 @@
       <c r="Q8" s="34"/>
       <c r="R8" s="96"/>
       <c r="S8" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U8" s="99">
         <v>1</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="W8" s="100"/>
       <c r="X8" s="101"/>
@@ -53041,10 +53054,10 @@
       <c r="Q9" s="34"/>
       <c r="R9" s="96"/>
       <c r="S9" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="T9" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U9" s="99">
         <v>1</v>
@@ -53229,7 +53242,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X12" s="24" t="s">
         <v>14</v>
@@ -53267,10 +53280,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U13" s="49">
         <v>1</v>
@@ -53325,7 +53338,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X14" s="22" t="s">
         <v>25</v>
@@ -53366,7 +53379,7 @@
         <v>301</v>
       </c>
       <c r="T15" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U15" s="49" t="s">
         <v>20</v>
@@ -53712,7 +53725,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -53749,19 +53762,19 @@
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S3" s="91" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="95"/>
       <c r="V3" s="31"/>
       <c r="W3" s="98" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="X3" s="98" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Y3" s="98"/>
       <c r="Z3" s="31" t="s">
@@ -53830,7 +53843,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="X4" s="99" t="s">
         <v>14</v>
@@ -53897,7 +53910,7 @@
         <v>147</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U5" s="99">
         <v>1</v>
@@ -54034,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X7" s="24" t="s">
         <v>14</v>
@@ -54072,10 +54085,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U8" s="49">
         <v>1</v>
@@ -54130,7 +54143,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X9" s="22" t="s">
         <v>25</v>
@@ -54171,7 +54184,7 @@
         <v>301</v>
       </c>
       <c r="T10" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U10" s="49" t="s">
         <v>20</v>
@@ -55131,7 +55144,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -55168,19 +55181,19 @@
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S3" s="91" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="95"/>
       <c r="V3" s="31"/>
       <c r="W3" s="98" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="X3" s="98" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Y3" s="98"/>
       <c r="Z3" s="31" t="s">
@@ -55249,7 +55262,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="X4" s="99" t="s">
         <v>14</v>
@@ -55316,7 +55329,7 @@
         <v>147</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U5" s="99">
         <v>1</v>
@@ -55451,7 +55464,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X7" s="24" t="s">
         <v>14</v>
@@ -55489,10 +55502,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U8" s="49">
         <v>1</v>
@@ -55547,7 +55560,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X9" s="22" t="s">
         <v>25</v>
@@ -55588,7 +55601,7 @@
         <v>301</v>
       </c>
       <c r="T10" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U10" s="49" t="s">
         <v>20</v>
@@ -56280,6 +56293,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16" width="0" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="11.42578125" style="111"/>
     <col min="26" max="26" width="11.28515625" customWidth="1"/>
@@ -56419,7 +56433,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -56456,19 +56470,19 @@
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="31" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="S3" s="91" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="95"/>
       <c r="V3" s="31"/>
       <c r="W3" s="98" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="X3" s="98" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Y3" s="98"/>
       <c r="Z3" s="31" t="s">
@@ -56519,7 +56533,7 @@
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
       <c r="S4" s="91" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="95"/>
@@ -56591,7 +56605,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="111" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="X5" s="99" t="s">
         <v>14</v>
@@ -56658,7 +56672,7 @@
         <v>147</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="99">
         <v>1</v>
@@ -56725,7 +56739,7 @@
       <c r="U7" s="99"/>
       <c r="V7" s="28"/>
       <c r="W7" s="100" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="X7" s="101" t="s">
         <v>25</v>
@@ -56963,7 +56977,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X11" s="24" t="s">
         <v>14</v>
@@ -57001,10 +57015,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U12" s="49">
         <v>1</v>
@@ -57059,7 +57073,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X13" s="22" t="s">
         <v>25</v>
@@ -57100,7 +57114,7 @@
         <v>301</v>
       </c>
       <c r="T14" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U14" s="49" t="s">
         <v>20</v>
@@ -57297,6 +57311,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16" width="0" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="11.42578125" style="111"/>
   </cols>
@@ -57435,7 +57450,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -57472,19 +57487,19 @@
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="31" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="S3" s="91" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="95"/>
       <c r="V3" s="31"/>
       <c r="W3" s="98" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="X3" s="98" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Y3" s="98"/>
       <c r="Z3" s="31" t="s">
@@ -57553,7 +57568,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="111" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="X4" s="99" t="s">
         <v>14</v>
@@ -57617,24 +57632,24 @@
       <c r="Q5" s="34"/>
       <c r="R5" s="96"/>
       <c r="S5" s="28" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U5" s="99">
         <v>1</v>
       </c>
-      <c r="V5" s="28" t="s">
-        <v>17</v>
+      <c r="V5" s="145" t="s">
+        <v>433</v>
       </c>
       <c r="W5" s="100"/>
       <c r="X5" s="101" t="s">
         <v>0</v>
       </c>
       <c r="Y5" s="101"/>
-      <c r="Z5" s="28" t="s">
-        <v>0</v>
+      <c r="Z5" s="145" t="s">
+        <v>434</v>
       </c>
       <c r="AA5" s="111"/>
       <c r="AB5" s="111"/>
@@ -57755,7 +57770,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X7" s="24" t="s">
         <v>14</v>
@@ -57793,10 +57808,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U8" s="49">
         <v>1</v>
@@ -57851,7 +57866,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X9" s="22" t="s">
         <v>25</v>
@@ -57892,7 +57907,7 @@
         <v>301</v>
       </c>
       <c r="T10" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U10" s="49" t="s">
         <v>20</v>
@@ -58238,7 +58253,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -58449,7 +58464,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -58559,7 +58574,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U8" s="52">
         <v>1</v>
@@ -58613,7 +58628,7 @@
         <v>98</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U9" s="52">
         <v>1</v>
@@ -58778,7 +58793,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X12" s="24" t="s">
         <v>14</v>
@@ -58816,10 +58831,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U13" s="49">
         <v>1</v>
@@ -58876,7 +58891,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X14" s="22" t="s">
         <v>25</v>
@@ -58919,7 +58934,7 @@
         <v>301</v>
       </c>
       <c r="T15" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U15" s="49" t="s">
         <v>20</v>
@@ -59309,7 +59324,7 @@
         <v>22</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U22" s="52">
         <v>1</v>
@@ -59419,7 +59434,7 @@
         <v>35</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U24" s="52">
         <v>1</v>
@@ -59473,7 +59488,7 @@
         <v>98</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U25" s="52">
         <v>1</v>
@@ -59638,7 +59653,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X28" s="24" t="s">
         <v>14</v>
@@ -59676,10 +59691,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T29" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U29" s="49">
         <v>1</v>
@@ -59736,7 +59751,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X30" s="22" t="s">
         <v>25</v>
@@ -59779,7 +59794,7 @@
         <v>301</v>
       </c>
       <c r="T31" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U31" s="49" t="s">
         <v>20</v>
@@ -60171,7 +60186,7 @@
         <v>22</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U38" s="52">
         <v>1</v>
@@ -60281,7 +60296,7 @@
         <v>35</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U40" s="52">
         <v>1</v>
@@ -60335,7 +60350,7 @@
         <v>98</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U41" s="52">
         <v>1</v>
@@ -60500,7 +60515,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X44" s="24" t="s">
         <v>14</v>
@@ -60538,10 +60553,10 @@
         <v>0</v>
       </c>
       <c r="S45" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T45" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U45" s="49">
         <v>1</v>
@@ -60598,7 +60613,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X46" s="22" t="s">
         <v>25</v>
@@ -60641,7 +60656,7 @@
         <v>301</v>
       </c>
       <c r="T47" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U47" s="49" t="s">
         <v>20</v>
@@ -61033,7 +61048,7 @@
         <v>22</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U54" s="52">
         <v>1</v>
@@ -61143,7 +61158,7 @@
         <v>35</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U56" s="52">
         <v>1</v>
@@ -61197,7 +61212,7 @@
         <v>98</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U57" s="52">
         <v>1</v>
@@ -61362,7 +61377,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X60" s="24" t="s">
         <v>14</v>
@@ -61400,10 +61415,10 @@
         <v>0</v>
       </c>
       <c r="S61" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T61" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U61" s="49">
         <v>1</v>
@@ -61460,7 +61475,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X62" s="22" t="s">
         <v>25</v>
@@ -61503,7 +61518,7 @@
         <v>301</v>
       </c>
       <c r="T63" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U63" s="49" t="s">
         <v>20</v>
@@ -61895,7 +61910,7 @@
         <v>22</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U70" s="52">
         <v>1</v>
@@ -62005,7 +62020,7 @@
         <v>35</v>
       </c>
       <c r="T72" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U72" s="52">
         <v>1</v>
@@ -62059,7 +62074,7 @@
         <v>98</v>
       </c>
       <c r="T73" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U73" s="52">
         <v>1</v>
@@ -62224,7 +62239,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X76" s="24" t="s">
         <v>14</v>
@@ -62262,10 +62277,10 @@
         <v>0</v>
       </c>
       <c r="S77" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T77" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U77" s="49">
         <v>1</v>
@@ -62322,7 +62337,7 @@
         <v>0</v>
       </c>
       <c r="W78" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X78" s="22" t="s">
         <v>25</v>
@@ -62365,7 +62380,7 @@
         <v>301</v>
       </c>
       <c r="T79" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U79" s="49" t="s">
         <v>20</v>
@@ -62757,7 +62772,7 @@
         <v>22</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U86" s="52">
         <v>1</v>
@@ -62867,7 +62882,7 @@
         <v>35</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U88" s="52">
         <v>1</v>
@@ -62921,7 +62936,7 @@
         <v>98</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U89" s="52">
         <v>1</v>
@@ -63086,7 +63101,7 @@
         <v>0</v>
       </c>
       <c r="W92" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X92" s="24" t="s">
         <v>14</v>
@@ -63124,10 +63139,10 @@
         <v>0</v>
       </c>
       <c r="S93" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T93" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U93" s="49">
         <v>1</v>
@@ -63184,7 +63199,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X94" s="22" t="s">
         <v>25</v>
@@ -63227,7 +63242,7 @@
         <v>301</v>
       </c>
       <c r="T95" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U95" s="49" t="s">
         <v>20</v>
@@ -63580,7 +63595,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -63620,7 +63635,7 @@
         <v>119</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>0</v>
@@ -63835,7 +63850,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
@@ -63991,7 +64006,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U8" s="52">
         <v>1</v>
@@ -64149,7 +64164,7 @@
         <v>124</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U10" s="52">
         <v>1</v>
@@ -64281,7 +64296,7 @@
         <v>35</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U12" s="52">
         <v>1</v>
@@ -64552,7 +64567,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X17" s="24" t="s">
         <v>14</v>
@@ -64590,10 +64605,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U18" s="49">
         <v>1</v>
@@ -64650,7 +64665,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X19" s="22" t="s">
         <v>25</v>
@@ -64693,7 +64708,7 @@
         <v>301</v>
       </c>
       <c r="T20" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U20" s="49" t="s">
         <v>20</v>
@@ -65123,7 +65138,7 @@
         <v>22</v>
       </c>
       <c r="T27" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U27" s="126">
         <v>1</v>
@@ -65279,7 +65294,7 @@
         <v>35</v>
       </c>
       <c r="T29" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U29" s="126">
         <v>1</v>
@@ -65437,7 +65452,7 @@
         <v>124</v>
       </c>
       <c r="T31" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U31" s="126">
         <v>1</v>
@@ -65593,7 +65608,7 @@
         <v>35</v>
       </c>
       <c r="T33" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U33" s="126">
         <v>1</v>
@@ -65960,7 +65975,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X38" s="24" t="s">
         <v>14</v>
@@ -65998,10 +66013,10 @@
         <v>0</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T39" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U39" s="49">
         <v>1</v>
@@ -66058,7 +66073,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X40" s="22" t="s">
         <v>25</v>
@@ -66101,7 +66116,7 @@
         <v>301</v>
       </c>
       <c r="T41" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U41" s="49" t="s">
         <v>20</v>
@@ -66301,9 +66316,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:AX34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -66452,7 +66465,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -66494,7 +66507,7 @@
         <v>129</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="T3" s="31" t="s">
         <v>0</v>
@@ -66642,7 +66655,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="X5" s="34" t="s">
         <v>14</v>
@@ -66713,7 +66726,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="34">
         <v>1</v>
@@ -66847,7 +66860,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U8" s="33">
         <v>1</v>
@@ -67012,7 +67025,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X11" s="24" t="s">
         <v>14</v>
@@ -67050,10 +67063,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U12" s="49">
         <v>1</v>
@@ -67110,7 +67123,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X13" s="22" t="s">
         <v>25</v>
@@ -67153,7 +67166,7 @@
         <v>301</v>
       </c>
       <c r="T14" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U14" s="49" t="s">
         <v>20</v>
@@ -67522,7 +67535,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="X20" s="34" t="s">
         <v>14</v>
@@ -67593,7 +67606,7 @@
         <v>22</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U21" s="34">
         <v>1</v>
@@ -67727,7 +67740,7 @@
         <v>35</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U23" s="33">
         <v>1</v>
@@ -67892,7 +67905,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X26" s="24" t="s">
         <v>14</v>
@@ -67930,10 +67943,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U27" s="49">
         <v>1</v>
@@ -67990,7 +68003,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X28" s="22" t="s">
         <v>25</v>
@@ -68033,7 +68046,7 @@
         <v>301</v>
       </c>
       <c r="T29" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U29" s="49" t="s">
         <v>20</v>
@@ -68353,7 +68366,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="10.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="1.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.85546875" style="2" hidden="1" customWidth="1"/>
@@ -68501,7 +68514,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -68708,7 +68721,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="4">
         <v>1</v>
@@ -68816,7 +68829,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U8" s="4">
         <v>1</v>
@@ -68920,7 +68933,7 @@
         <v>33</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U10" s="36">
         <v>1</v>
@@ -69026,7 +69039,7 @@
         <v>35</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U12" s="36">
         <v>1</v>
@@ -69291,7 +69304,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X17" s="24" t="s">
         <v>14</v>
@@ -69329,10 +69342,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U18" s="49">
         <v>1</v>
@@ -69389,7 +69402,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X19" s="22" t="s">
         <v>25</v>
@@ -69432,7 +69445,7 @@
         <v>301</v>
       </c>
       <c r="T20" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U20" s="49" t="s">
         <v>20</v>
@@ -69749,7 +69762,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -69789,7 +69802,7 @@
         <v>142</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="T3" s="95"/>
       <c r="U3" s="31" t="s">
@@ -69899,7 +69912,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="131" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="X5" s="34" t="s">
         <v>14</v>
@@ -69944,7 +69957,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="106">
         <v>1</v>
@@ -70053,7 +70066,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X8" s="24" t="s">
         <v>14</v>
@@ -70089,10 +70102,10 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U9" s="49">
         <v>1</v>
@@ -70147,7 +70160,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X10" s="22" t="s">
         <v>25</v>
@@ -70188,7 +70201,7 @@
         <v>301</v>
       </c>
       <c r="T11" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U11" s="49" t="s">
         <v>20</v>
@@ -70506,7 +70519,7 @@
         <v>6</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>7</v>
@@ -70664,7 +70677,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="45" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="X5" s="74" t="s">
         <v>14</v>
@@ -70707,7 +70720,7 @@
         <v>147</v>
       </c>
       <c r="T6" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U6" s="75">
         <v>1</v>
@@ -70807,7 +70820,7 @@
         <v>35</v>
       </c>
       <c r="T8" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U8" s="45">
         <v>1</v>
@@ -70902,10 +70915,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="131" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T10" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U10" s="45">
         <v>1</v>
@@ -71003,7 +71016,7 @@
         <v>35</v>
       </c>
       <c r="T12" s="75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U12" s="45">
         <v>1</v>
@@ -71218,7 +71231,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X17" s="24" t="s">
         <v>14</v>
@@ -71280,10 +71293,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U18" s="49">
         <v>1</v>
@@ -71364,7 +71377,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="138" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="X19" s="22" t="s">
         <v>25</v>
@@ -71431,7 +71444,7 @@
         <v>301</v>
       </c>
       <c r="T20" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U20" s="49" t="s">
         <v>20</v>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.0.3.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.0.3.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11492" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11493" uniqueCount="443">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1375,10 +1375,16 @@
     <t>Where applicable, name of the participating group:</t>
   </si>
   <si>
-    <t>EO_IDENTIFIER</t>
+    <t>51c39ba9-0444-4967-afe9-36f753b30175</t>
   </si>
   <si>
-    <t>Changed in v2.0.3 from DESCRIPTION to IDENTIFIER</t>
+    <t>f4dc58dd-af45-4602-a4c8-3dca30fac082</t>
+  </si>
+  <si>
+    <t>ECONOMIC_OPERATOR_ROLE_CODE</t>
+  </si>
+  <si>
+    <t>Changed in v2.0.3 from DESCRIPTION to ECONOMIC_OPERATOR_ROLE_CODE</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1548,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1765,6 +1771,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1957,7 +1969,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2332,6 +2344,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -15343,7 +15358,9 @@
   <sheetPr codeName="Hoja12"/>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21465,7 +21482,9 @@
   <sheetPr codeName="Hoja19"/>
   <dimension ref="A1:AX14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37115,7 +37134,9 @@
   <sheetPr codeName="Hoja25"/>
   <dimension ref="A1:AX26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38517,7 +38538,9 @@
   <sheetPr codeName="Hoja26"/>
   <dimension ref="A1:AX47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38722,7 +38745,7 @@
       <c r="W3" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="X3" s="124" t="s">
         <v>276</v>
       </c>
       <c r="Y3" s="115"/>
@@ -45366,13 +45389,13 @@
         <v>1</v>
       </c>
       <c r="V7" s="145" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="W7" s="100"/>
       <c r="X7" s="101"/>
       <c r="Y7" s="101"/>
-      <c r="Z7" s="145" t="s">
-        <v>440</v>
+      <c r="Z7" s="147" t="s">
+        <v>442</v>
       </c>
       <c r="AA7"/>
       <c r="AB7"/>
@@ -52464,7 +52487,9 @@
   <sheetPr codeName="Hoja31"/>
   <dimension ref="A1:AX18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -54987,7 +55012,9 @@
   <sheetPr codeName="Hoja33"/>
   <dimension ref="A1:AX137"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -56289,7 +56316,9 @@
   <sheetPr codeName="Hoja34"/>
   <dimension ref="A1:AX17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -56479,7 +56508,7 @@
       <c r="U3" s="95"/>
       <c r="V3" s="31"/>
       <c r="W3" s="98" t="s">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="X3" s="98" t="s">
         <v>430</v>
@@ -56607,7 +56636,7 @@
       <c r="W5" s="111" t="s">
         <v>422</v>
       </c>
-      <c r="X5" s="99" t="s">
+      <c r="X5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="Y5" s="99"/>
@@ -56681,7 +56710,7 @@
         <v>17</v>
       </c>
       <c r="W6" s="100"/>
-      <c r="X6" s="101" t="s">
+      <c r="X6" s="100" t="s">
         <v>0</v>
       </c>
       <c r="Y6" s="101"/>
@@ -56741,7 +56770,7 @@
       <c r="W7" s="100" t="s">
         <v>423</v>
       </c>
-      <c r="X7" s="101" t="s">
+      <c r="X7" s="100" t="s">
         <v>25</v>
       </c>
       <c r="Y7" s="101"/>
@@ -56799,9 +56828,10 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="99"/>
-      <c r="V8" s="28"/>
+      <c r="V8" s="100" t="s">
+        <v>29</v>
+      </c>
       <c r="W8" s="100"/>
-      <c r="X8" s="101"/>
       <c r="Y8" s="101"/>
       <c r="Z8" s="28"/>
       <c r="AA8" s="111"/>
@@ -57307,7 +57337,9 @@
   <sheetPr codeName="Hoja35"/>
   <dimension ref="A1:AX13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -57496,7 +57528,7 @@
       <c r="U3" s="95"/>
       <c r="V3" s="31"/>
       <c r="W3" s="98" t="s">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="X3" s="98" t="s">
         <v>429</v>
